--- a/HW5 Test cases.xlsx
+++ b/HW5 Test cases.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA4500A-98A6-45B6-BB69-29812E49926A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Фильтр на Яндекс.Маркет " sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>ID</t>
   </si>
@@ -513,13 +514,16 @@
       </rPr>
       <t>Найдены все товары, включенные в заданный диапазон частоты</t>
     </r>
+  </si>
+  <si>
+    <t>Позитивные ок, а негативные не проверила, а они самые основные в общем-то (т.е. указать цену меньше минимальной или больше максимальной, или буквы со спец символами. На позитивных значениях баги находятся редко. Чаще всего они находятся вот как раз в таких невалидных данных.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +555,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -640,7 +652,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -658,7 +670,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -666,12 +690,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -683,9 +701,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,6 +708,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -739,7 +762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -771,9 +794,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,6 +846,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -980,29 +1039,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="42.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1013,109 +1076,109 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="41.25" customHeight="1">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A6" s="11" t="s">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="21.75" customHeight="1">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="36" customHeight="1">
+    <row r="10" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
     </row>
-    <row r="11" spans="1:3" ht="47.25" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="31.5" customHeight="1">
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
     </row>
-    <row r="13" spans="1:3" ht="31.5" customHeight="1">
+    <row r="13" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
     </row>
-    <row r="14" spans="1:3" ht="46.5" customHeight="1">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:4" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1126,93 +1189,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="50.25" customHeight="1">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:3" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:3" ht="39.75" customHeight="1">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="1:3" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A23" s="11" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-    </row>
-    <row r="25" spans="1:3" ht="58.5" customHeight="1">
-      <c r="A25" s="7" t="s">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+    </row>
+    <row r="25" spans="1:3" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="14" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-    </row>
-    <row r="30" spans="1:3" ht="48.75" customHeight="1">
-      <c r="A30" s="7" t="s">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="6" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1222,6 +1285,11 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -1231,11 +1299,6 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
